--- a/Daily Health Checkup/JobId_wf_coord_bundle.xlsx
+++ b/Daily Health Checkup/JobId_wf_coord_bundle.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sivakumar\TechM-Nissan\Daily Health Checkup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sivakumar\TechM-Nissan\Daily Health Checkup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="736">
   <si>
     <t>------------------------------------------------------------------------------------------------------------------------------------</t>
   </si>
@@ -2177,6 +2177,81 @@
   </si>
   <si>
     <t>2020-07-09 23:08 MDT</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>x981139</t>
+  </si>
+  <si>
+    <t>x981140</t>
+  </si>
+  <si>
+    <t>x981141</t>
+  </si>
+  <si>
+    <t>x981142</t>
+  </si>
+  <si>
+    <t>x981143</t>
+  </si>
+  <si>
+    <t>x981144</t>
+  </si>
+  <si>
+    <t>x981145</t>
+  </si>
+  <si>
+    <t>x981146</t>
+  </si>
+  <si>
+    <t>x981147</t>
+  </si>
+  <si>
+    <t>x981148</t>
+  </si>
+  <si>
+    <t>x981149</t>
+  </si>
+  <si>
+    <t>x981150</t>
+  </si>
+  <si>
+    <t>x981151</t>
+  </si>
+  <si>
+    <t>x981152</t>
+  </si>
+  <si>
+    <t>x981153</t>
+  </si>
+  <si>
+    <t>x981154</t>
+  </si>
+  <si>
+    <t>x981155</t>
+  </si>
+  <si>
+    <t>x981156</t>
+  </si>
+  <si>
+    <t>x981157</t>
+  </si>
+  <si>
+    <t>x981158</t>
+  </si>
+  <si>
+    <t>x981159</t>
+  </si>
+  <si>
+    <t>x981160</t>
+  </si>
+  <si>
+    <t>x981161</t>
+  </si>
+  <si>
+    <t>x981162</t>
   </si>
 </sst>
 </file>
@@ -2529,8 +2604,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,7 +2616,7 @@
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2571,8 +2646,29 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>504</v>
+      </c>
       <c r="H2" t="e">
-        <f>MATCH(I2,B:B,FALSE)</f>
+        <f>VLOOKUP(I2,B:B,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="s">
@@ -2580,20 +2676,41 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3">
-        <f>MATCH(I3,B:B,FALSE)</f>
-        <v>20</v>
+      <c r="A3" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H55" si="0">VLOOKUP(I3,B:B,1,FALSE)</f>
+        <v>EQUIP-AVES-Ingest-Daily-BDE-PRD-wf</v>
       </c>
       <c r="I3" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>667</v>
+      <c r="A4" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>616</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
         <v>307</v>
@@ -2601,17 +2718,17 @@
       <c r="D4" t="s">
         <v>571</v>
       </c>
-      <c r="E4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4" t="s">
-        <v>668</v>
-      </c>
-      <c r="G4" t="s">
-        <v>669</v>
+      <c r="E4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="H4" t="e">
-        <f>MATCH(I4,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I4" t="s">
@@ -2619,11 +2736,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>670</v>
+      <c r="A5" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>619</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
         <v>97</v>
@@ -2631,26 +2748,47 @@
       <c r="D5" t="s">
         <v>571</v>
       </c>
-      <c r="E5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F5" t="s">
-        <v>671</v>
-      </c>
-      <c r="G5" t="s">
-        <v>303</v>
-      </c>
-      <c r="H5">
-        <f>MATCH(I5,B:B,FALSE)</f>
-        <v>54</v>
+      <c r="E5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>ConsumerAffairs-Ingest-Daily-BDE-PRD-wf</v>
       </c>
       <c r="I5" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" t="s">
+        <v>571</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>509</v>
+      </c>
       <c r="H6" t="e">
-        <f>MATCH(I6,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I6" t="s">
@@ -2679,9 +2817,9 @@
       <c r="G7" t="s">
         <v>664</v>
       </c>
-      <c r="H7">
-        <f>MATCH(I7,B:B,FALSE)</f>
-        <v>46</v>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>EQUIP-ConsumerAffairs-Solr-Daily-BDE-PRD-wf</v>
       </c>
       <c r="I7" t="s">
         <v>414</v>
@@ -2689,10 +2827,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C8" t="s">
         <v>307</v>
@@ -2704,13 +2842,13 @@
         <v>303</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>195</v>
+        <v>572</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H8" t="e">
-        <f>MATCH(I8,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I8" t="s">
@@ -2719,89 +2857,89 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>704</v>
+        <v>667</v>
       </c>
       <c r="B9" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="C9" t="s">
         <v>307</v>
       </c>
       <c r="D9" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E9" t="s">
         <v>303</v>
       </c>
       <c r="F9" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="G9" t="s">
-        <v>705</v>
-      </c>
-      <c r="H9">
-        <f>MATCH(I9,B:B,FALSE)</f>
-        <v>10</v>
+        <v>669</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>Claims-Ingest-Daily-BDE-PRD-wf</v>
       </c>
       <c r="I9" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>302</v>
+      <c r="A10" s="7" t="s">
+        <v>670</v>
       </c>
       <c r="B10" t="s">
-        <v>410</v>
+        <v>619</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
         <v>571</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H10">
-        <f>MATCH(I10,B:B,FALSE)</f>
-        <v>51</v>
+      <c r="E10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" t="s">
+        <v>671</v>
+      </c>
+      <c r="G10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>EQUIP-Claims-Condense-Daily-BDE-PRD-wf</v>
       </c>
       <c r="I10" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>702</v>
+      <c r="A11" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="B11" t="s">
-        <v>645</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="D11" t="s">
-        <v>578</v>
-      </c>
-      <c r="E11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F11" t="s">
-        <v>653</v>
-      </c>
-      <c r="G11" t="s">
-        <v>303</v>
-      </c>
-      <c r="H11">
-        <f>MATCH(I11,B:B,FALSE)</f>
-        <v>7</v>
+        <v>571</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>EQUIP-Claims-Solr-Daily-BDE-PRD-wf</v>
       </c>
       <c r="I11" t="s">
         <v>613</v>
@@ -2809,10 +2947,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="B12" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="C12" t="s">
         <v>307</v>
@@ -2824,13 +2962,13 @@
         <v>303</v>
       </c>
       <c r="F12" t="s">
-        <v>568</v>
+        <v>676</v>
       </c>
       <c r="G12" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="H12" t="e">
-        <f>MATCH(I12,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I12" t="s">
@@ -2838,8 +2976,29 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="B13" t="s">
+        <v>623</v>
+      </c>
+      <c r="C13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" t="s">
+        <v>571</v>
+      </c>
+      <c r="E13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" t="s">
+        <v>679</v>
+      </c>
+      <c r="G13" t="s">
+        <v>680</v>
+      </c>
       <c r="H13" t="e">
-        <f>MATCH(I13,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I13" t="s">
@@ -2847,9 +3006,30 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H14">
-        <f>MATCH(I14,B:B,FALSE)</f>
-        <v>4</v>
+      <c r="A14" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" t="s">
+        <v>571</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>EQUIP-Gears-3.0-Adhoc-BDE-PRD-wf</v>
       </c>
       <c r="I14" t="s">
         <v>616</v>
@@ -2857,11 +3037,11 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>317</v>
+      <c r="A15" s="7" t="s">
+        <v>684</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>627</v>
       </c>
       <c r="C15" t="s">
         <v>307</v>
@@ -2869,18 +3049,18 @@
       <c r="D15" t="s">
         <v>571</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H15">
-        <f>MATCH(I15,B:B,FALSE)</f>
-        <v>34</v>
+      <c r="E15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F15" t="s">
+        <v>568</v>
+      </c>
+      <c r="G15" t="s">
+        <v>685</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>EQUIP-Materialized-Views-BDE-PRD-wf</v>
       </c>
       <c r="I15" t="s">
         <v>617</v>
@@ -2888,29 +3068,29 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>319</v>
+      <c r="A16" s="7" t="s">
+        <v>686</v>
       </c>
       <c r="B16" t="s">
-        <v>420</v>
+        <v>628</v>
       </c>
       <c r="C16" t="s">
         <v>307</v>
       </c>
       <c r="D16" t="s">
-        <v>571</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>517</v>
+        <v>578</v>
+      </c>
+      <c r="E16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" t="s">
+        <v>687</v>
+      </c>
+      <c r="G16" t="s">
+        <v>688</v>
       </c>
       <c r="H16" t="e">
-        <f>MATCH(I16,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I16" t="s">
@@ -2919,18 +3099,60 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H17">
-        <f>MATCH(I17,B:B,FALSE)</f>
-        <v>52</v>
+      <c r="A17" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" t="s">
+        <v>578</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>EQUIP-INSPECT-Ingest-Daily-BDE-PRD-wf</v>
       </c>
       <c r="I17" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H18">
-        <f>MATCH(I18,B:B,FALSE)</f>
-        <v>5</v>
+      <c r="A18" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="B18" t="s">
+        <v>634</v>
+      </c>
+      <c r="C18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" t="s">
+        <v>578</v>
+      </c>
+      <c r="E18" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" t="s">
+        <v>661</v>
+      </c>
+      <c r="G18" t="s">
+        <v>691</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>EQUIP-incident-rate-daily-wf</v>
       </c>
       <c r="I18" t="s">
         <v>619</v>
@@ -2939,13 +3161,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="B19" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="D19" t="s">
         <v>578</v>
@@ -2954,13 +3176,13 @@
         <v>303</v>
       </c>
       <c r="F19" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="G19" t="s">
-        <v>303</v>
+        <v>693</v>
       </c>
       <c r="H19" t="e">
-        <f>MATCH(I19,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I19" t="s">
@@ -2969,29 +3191,29 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>308</v>
+      <c r="A20" s="7" t="s">
+        <v>694</v>
       </c>
       <c r="B20" t="s">
-        <v>412</v>
+        <v>636</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="D20" t="s">
-        <v>571</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>303</v>
+        <v>578</v>
+      </c>
+      <c r="E20" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" t="s">
+        <v>661</v>
+      </c>
+      <c r="G20" t="s">
+        <v>695</v>
       </c>
       <c r="H20" t="e">
-        <f>MATCH(I20,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I20" t="s">
@@ -3000,8 +3222,29 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="B21" t="s">
+        <v>638</v>
+      </c>
+      <c r="C21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" t="s">
+        <v>578</v>
+      </c>
+      <c r="E21" t="s">
+        <v>303</v>
+      </c>
+      <c r="F21" t="s">
+        <v>653</v>
+      </c>
+      <c r="G21" t="s">
+        <v>697</v>
+      </c>
       <c r="H21" t="e">
-        <f>MATCH(I21,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I21" t="s">
@@ -3010,8 +3253,29 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="B22" t="s">
+        <v>640</v>
+      </c>
+      <c r="C22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" t="s">
+        <v>578</v>
+      </c>
+      <c r="E22" t="s">
+        <v>303</v>
+      </c>
+      <c r="F22" t="s">
+        <v>651</v>
+      </c>
+      <c r="G22" t="s">
+        <v>699</v>
+      </c>
       <c r="H22" t="e">
-        <f>MATCH(I22,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I22" t="s">
@@ -3020,9 +3284,30 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H23">
-        <f>MATCH(I23,B:B,FALSE)</f>
-        <v>40</v>
+      <c r="A23" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="B23" t="s">
+        <v>643</v>
+      </c>
+      <c r="C23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" t="s">
+        <v>578</v>
+      </c>
+      <c r="E23" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" t="s">
+        <v>687</v>
+      </c>
+      <c r="G23" t="s">
+        <v>701</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>EQUIP-pfp-daily-ingest-wf</v>
       </c>
       <c r="I23" t="s">
         <v>623</v>
@@ -3030,9 +3315,30 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H24">
-        <f>MATCH(I24,B:B,FALSE)</f>
-        <v>8</v>
+      <c r="A24" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B24" t="s">
+        <v>645</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>578</v>
+      </c>
+      <c r="E24" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" t="s">
+        <v>653</v>
+      </c>
+      <c r="G24" t="s">
+        <v>303</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>QCS-survey-Ingest-Fullload-Daily-BDE-PRD-wf</v>
       </c>
       <c r="I24" t="s">
         <v>418</v>
@@ -3040,8 +3346,29 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="B25" t="s">
+        <v>646</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>578</v>
+      </c>
+      <c r="E25" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" t="s">
+        <v>687</v>
+      </c>
+      <c r="G25" t="s">
+        <v>303</v>
+      </c>
       <c r="H25" t="e">
-        <f>MATCH(I25,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I25" t="s">
@@ -3051,10 +3378,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="B26" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="C26" t="s">
         <v>307</v>
@@ -3066,13 +3393,13 @@
         <v>303</v>
       </c>
       <c r="F26" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="G26" t="s">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="H26" t="e">
-        <f>MATCH(I26,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I26" t="s">
@@ -3102,9 +3429,9 @@
       <c r="G27" t="s">
         <v>699</v>
       </c>
-      <c r="H27">
-        <f>MATCH(I27,B:B,FALSE)</f>
-        <v>41</v>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>EQUIP-Techline-Solr-Daily-BDE-PRD-wf</v>
       </c>
       <c r="I27" t="s">
         <v>416</v>
@@ -3112,8 +3439,29 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B28" t="s">
+        <v>418</v>
+      </c>
+      <c r="C28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" t="s">
+        <v>571</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>514</v>
+      </c>
       <c r="H28" t="e">
-        <f>MATCH(I28,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I28" t="s">
@@ -3121,113 +3469,239 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H29">
-        <f>MATCH(I29,B:B,FALSE)</f>
-        <v>16</v>
+      <c r="A29" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B29" t="s">
+        <v>419</v>
+      </c>
+      <c r="C29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" t="s">
+        <v>571</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>Techline-Ingest-Daily-BDE-PRD-wf</v>
       </c>
       <c r="I29" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>700</v>
+      <c r="A30" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="B30" t="s">
-        <v>643</v>
+        <v>318</v>
       </c>
       <c r="C30" t="s">
         <v>307</v>
       </c>
       <c r="D30" t="s">
-        <v>578</v>
-      </c>
-      <c r="E30" t="s">
-        <v>303</v>
-      </c>
-      <c r="F30" t="s">
-        <v>687</v>
-      </c>
-      <c r="G30" t="s">
-        <v>701</v>
-      </c>
-      <c r="H30">
-        <f>MATCH(I30,B:B,FALSE)</f>
-        <v>12</v>
+        <v>571</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>EQUIP-Vehicle-Extract-Daily-prd-wf</v>
       </c>
       <c r="I30" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H31">
-        <f>MATCH(I31,B:B,FALSE)</f>
-        <v>43</v>
+      <c r="A31" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" t="s">
+        <v>420</v>
+      </c>
+      <c r="C31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" t="s">
+        <v>571</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>dbsro-wf</v>
       </c>
       <c r="I31" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H32">
-        <f>MATCH(I32,B:B,FALSE)</f>
-        <v>15</v>
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>711</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" t="s">
+        <v>712</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>shell-wf</v>
       </c>
       <c r="I32" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H33">
-        <f>MATCH(I33,B:B,FALSE)</f>
-        <v>45</v>
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>711</v>
+      </c>
+      <c r="C33" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" t="s">
+        <v>713</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>QCS-survey-Ingest-Incremental-Daily-BDE-PRD-wf</v>
       </c>
       <c r="I33" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>675</v>
+      <c r="A34">
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>617</v>
+        <v>711</v>
       </c>
       <c r="C34" t="s">
         <v>307</v>
       </c>
       <c r="D34" t="s">
-        <v>571</v>
-      </c>
-      <c r="E34" t="s">
-        <v>303</v>
-      </c>
-      <c r="F34" t="s">
-        <v>676</v>
-      </c>
-      <c r="G34" t="s">
-        <v>677</v>
-      </c>
-      <c r="H34">
-        <f>MATCH(I34,B:B,FALSE)</f>
-        <v>39</v>
+        <v>714</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>EWS-CA-Solr-Indexing-Daily-Prd-wf</v>
       </c>
       <c r="I34" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H35">
-        <f>MATCH(I35,B:B,FALSE)</f>
-        <v>49</v>
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>711</v>
+      </c>
+      <c r="C35" t="s">
+        <v>307</v>
+      </c>
+      <c r="D35" t="s">
+        <v>715</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>EWS-Drive-Common-Ingest-Daily-Prd-wf</v>
       </c>
       <c r="I35" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>711</v>
+      </c>
+      <c r="C36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D36" t="s">
+        <v>716</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="H36" t="e">
-        <f>MATCH(I36,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I36" t="s">
@@ -3235,8 +3709,29 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>711</v>
+      </c>
+      <c r="C37" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" t="s">
+        <v>717</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="H37" t="e">
-        <f>MATCH(I37,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I37" t="s">
@@ -3244,29 +3739,29 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>692</v>
+      <c r="A38">
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>635</v>
+        <v>711</v>
       </c>
       <c r="C38" t="s">
         <v>307</v>
       </c>
       <c r="D38" t="s">
-        <v>578</v>
-      </c>
-      <c r="E38" t="s">
-        <v>303</v>
-      </c>
-      <c r="F38" t="s">
-        <v>655</v>
-      </c>
-      <c r="G38" t="s">
-        <v>693</v>
+        <v>718</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="H38" t="e">
-        <f>MATCH(I38,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I38" t="s">
@@ -3274,29 +3769,29 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>686</v>
+      <c r="A39">
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>628</v>
+        <v>711</v>
       </c>
       <c r="C39" t="s">
         <v>307</v>
       </c>
       <c r="D39" t="s">
-        <v>578</v>
-      </c>
-      <c r="E39" t="s">
-        <v>303</v>
-      </c>
-      <c r="F39" t="s">
-        <v>687</v>
-      </c>
-      <c r="G39" t="s">
-        <v>688</v>
+        <v>719</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="H39" t="e">
-        <f>MATCH(I39,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I39" t="s">
@@ -3304,29 +3799,29 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>678</v>
+      <c r="A40">
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>623</v>
+        <v>711</v>
       </c>
       <c r="C40" t="s">
         <v>307</v>
       </c>
       <c r="D40" t="s">
-        <v>571</v>
-      </c>
-      <c r="E40" t="s">
-        <v>303</v>
-      </c>
-      <c r="F40" t="s">
-        <v>679</v>
-      </c>
-      <c r="G40" t="s">
-        <v>680</v>
+        <v>720</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="H40" t="e">
-        <f>MATCH(I40,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I40" t="s">
@@ -3334,98 +3829,119 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>313</v>
+      <c r="A41">
+        <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>416</v>
+        <v>711</v>
       </c>
       <c r="C41" t="s">
         <v>307</v>
       </c>
       <c r="D41" t="s">
-        <v>571</v>
+        <v>721</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>303</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>577</v>
+        <v>239</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="H41">
-        <f>MATCH(I41,B:B,FALSE)</f>
-        <v>26</v>
+        <v>517</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>EWS-NHTSA-IVSTGN-Ingest-Daily-Prd-wf</v>
       </c>
       <c r="I41" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H42">
-        <f>MATCH(I42,B:B,FALSE)</f>
-        <v>38</v>
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>711</v>
+      </c>
+      <c r="C42" t="s">
+        <v>307</v>
+      </c>
+      <c r="D42" t="s">
+        <v>722</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>EWS-NHTSA-RCL-Ingest-Daily-Prd-wf</v>
       </c>
       <c r="I42" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>305</v>
+      <c r="A43">
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>306</v>
+        <v>711</v>
       </c>
       <c r="C43" t="s">
         <v>307</v>
       </c>
       <c r="D43" t="s">
-        <v>571</v>
+        <v>723</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>303</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>505</v>
+        <v>239</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H43">
-        <f>MATCH(I43,B:B,FALSE)</f>
-        <v>44</v>
+        <v>517</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>EWS-NHTSA-SVC-Ingest-Daily-Prd-wf</v>
       </c>
       <c r="I43" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>694</v>
+      <c r="A44">
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="C44" t="s">
         <v>307</v>
       </c>
       <c r="D44" t="s">
-        <v>578</v>
-      </c>
-      <c r="E44" t="s">
-        <v>303</v>
-      </c>
-      <c r="F44" t="s">
-        <v>661</v>
-      </c>
-      <c r="G44" t="s">
-        <v>695</v>
+        <v>724</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="H44" t="e">
-        <f>MATCH(I44,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I44" t="s">
@@ -3433,59 +3949,59 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>316</v>
+      <c r="A45">
+        <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>419</v>
+        <v>711</v>
       </c>
       <c r="C45" t="s">
         <v>307</v>
       </c>
       <c r="D45" t="s">
-        <v>571</v>
+        <v>725</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F45" t="s">
-        <v>195</v>
+      <c r="F45" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="H45">
-        <f>MATCH(I45,B:B,FALSE)</f>
-        <v>47</v>
+        <v>517</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>EWS-RCL-Ingest-Daily-Prd-wf</v>
       </c>
       <c r="I45" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>311</v>
+      <c r="A46">
+        <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>414</v>
+        <v>711</v>
       </c>
       <c r="C46" t="s">
         <v>307</v>
       </c>
       <c r="D46" t="s">
-        <v>571</v>
+        <v>726</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>303</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>572</v>
+        <v>239</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="H46" t="e">
-        <f>MATCH(I46,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I46" t="s">
@@ -3493,38 +4009,59 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>696</v>
+      <c r="A47">
+        <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="C47" t="s">
         <v>307</v>
       </c>
       <c r="D47" t="s">
-        <v>578</v>
-      </c>
-      <c r="E47" t="s">
-        <v>303</v>
-      </c>
-      <c r="F47" t="s">
-        <v>653</v>
-      </c>
-      <c r="G47" t="s">
-        <v>697</v>
-      </c>
-      <c r="H47">
-        <f>MATCH(I47,B:B,FALSE)</f>
-        <v>55</v>
+        <v>727</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>EWS-RO-Solr-Indexing-Daily-Prd-wf</v>
       </c>
       <c r="I47" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>711</v>
+      </c>
+      <c r="C48" t="s">
+        <v>307</v>
+      </c>
+      <c r="D48" t="s">
+        <v>728</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="H48" t="e">
-        <f>MATCH(I48,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I48" t="s">
@@ -3532,17 +4069,17 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>314</v>
+      <c r="A49">
+        <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>417</v>
+        <v>711</v>
       </c>
       <c r="C49" t="s">
         <v>307</v>
       </c>
       <c r="D49" t="s">
-        <v>578</v>
+        <v>729</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>303</v>
@@ -3551,10 +4088,10 @@
         <v>239</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>239</v>
+        <v>517</v>
       </c>
       <c r="H49" t="e">
-        <f>MATCH(I49,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I49" t="s">
@@ -3562,26 +4099,47 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H50">
-        <f>MATCH(I50,B:B,FALSE)</f>
-        <v>30</v>
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>711</v>
+      </c>
+      <c r="C50" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" t="s">
+        <v>730</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>EWS-TECHLINE-Solr-Indexing-Daily-Prd-wf</v>
       </c>
       <c r="I50" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>310</v>
+      <c r="A51">
+        <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>413</v>
+        <v>711</v>
       </c>
       <c r="C51" t="s">
         <v>307</v>
       </c>
       <c r="D51" t="s">
-        <v>571</v>
+        <v>731</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>303</v>
@@ -3590,10 +4148,10 @@
         <v>239</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H51" t="e">
-        <f>MATCH(I51,B:B,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="I51" t="s">
@@ -3601,107 +4159,128 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>312</v>
+      <c r="A52">
+        <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>415</v>
+        <v>711</v>
       </c>
       <c r="C52" t="s">
         <v>307</v>
       </c>
       <c r="D52" t="s">
-        <v>571</v>
+        <v>732</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>303</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>536</v>
+        <v>239</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="H52">
-        <f>MATCH(I52,B:B,FALSE)</f>
-        <v>11</v>
+        <v>517</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>EWS-VHCL-RCL-Ingest-Incremental-Daily-Prd-wf</v>
       </c>
       <c r="I52" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H53">
-        <f>MATCH(I53,B:B,FALSE)</f>
-        <v>19</v>
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>711</v>
+      </c>
+      <c r="C53" t="s">
+        <v>307</v>
+      </c>
+      <c r="D53" t="s">
+        <v>733</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>EWS-VHCL-Solr-Indexing-Daily-Prd-wf</v>
       </c>
       <c r="I53" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>304</v>
+      <c r="A54">
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>411</v>
+        <v>711</v>
       </c>
       <c r="C54" t="s">
         <v>307</v>
       </c>
       <c r="D54" t="s">
-        <v>571</v>
+        <v>734</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F54" t="s">
-        <v>574</v>
+      <c r="F54" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="H54">
-        <f>MATCH(I54,B:B,FALSE)</f>
-        <v>9</v>
+        <v>517</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>EWS-VOQ-Ingest-Daily-Prd-wf</v>
       </c>
       <c r="I54" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>698</v>
+      <c r="A55">
+        <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>640</v>
+        <v>711</v>
       </c>
       <c r="C55" t="s">
         <v>307</v>
       </c>
       <c r="D55" t="s">
-        <v>578</v>
-      </c>
-      <c r="E55" t="s">
-        <v>303</v>
-      </c>
-      <c r="F55" t="s">
-        <v>651</v>
-      </c>
-      <c r="G55" t="s">
-        <v>699</v>
-      </c>
-      <c r="H55">
-        <f>MATCH(I55,B:B,FALSE)</f>
-        <v>27</v>
+        <v>735</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>EWS-WRNTY-Solr-Indexing-Daily-Prd-wf</v>
       </c>
       <c r="I55" t="s">
         <v>648</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H55">
-    <sortCondition descending="1" ref="H1"/>
+  <sortState ref="A1:H55">
+    <sortCondition ref="B1:B55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3730,7 +4309,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>

--- a/Daily Health Checkup/JobId_wf_coord_bundle.xlsx
+++ b/Daily Health Checkup/JobId_wf_coord_bundle.xlsx
@@ -5,22 +5,22 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sivakumar\TechM-Nissan\Daily Health Checkup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sivakumar\TechM-Nissan\Daily Health Checkup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="Coordinator" sheetId="2" r:id="rId3"/>
-    <sheet name="Bundle" sheetId="3" r:id="rId4"/>
+    <sheet name="Coordinator" sheetId="2" r:id="rId2"/>
+    <sheet name="Bundle" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Coordinator!$A$1:$G$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Coordinator!$A$1:$G$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Workflow!$A$1:$M$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="703">
   <si>
     <t>------------------------------------------------------------------------------------------------------------------------------------</t>
   </si>
@@ -1859,9 +1859,6 @@
   </si>
   <si>
     <t>User</t>
-  </si>
-  <si>
-    <t>EQUIP-AVES-Condense-Weekly-BDE-STG-wf</t>
   </si>
   <si>
     <t>ConsumerAffairs-Condense-Weekly-BDE-PRD-wf</t>
@@ -1918,15 +1915,9 @@
     <t>EQUIP-pfp-daily-ingest-wf</t>
   </si>
   <si>
-    <t xml:space="preserve">QCS-survey-Ingest-Incremental-Daily-BDE-PRD-wf </t>
-  </si>
-  <si>
     <t>EQUIP-Techline-Condense-Weekly-BDE-PRD-wf</t>
   </si>
   <si>
-    <t>Techline-Condense-Weekly-BDE-PRD-wf</t>
-  </si>
-  <si>
     <t>EQUIP-Vehicle-Extract-Daily-prd-wf</t>
   </si>
   <si>
@@ -1942,9 +1933,6 @@
     <t>EWS-DRIVE-tr-Solr-Indexing-Daily-Prd-wf</t>
   </si>
   <si>
-    <t>EWS-FIR-Ingest-Incremental-Daily-Prd-wf</t>
-  </si>
-  <si>
     <t>EWS-ML-Predict-Daily-Prd-wf</t>
   </si>
   <si>
@@ -1957,9 +1945,6 @@
     <t>EWS-NHTSA-SVC-Ingest-Daily-Prd-wf</t>
   </si>
   <si>
-    <t>EWS-PRJ-Ingest-Incremental-Daily-Prd-wf</t>
-  </si>
-  <si>
     <t>EWS-RCL-Ingest-Daily-Prd-wf</t>
   </si>
   <si>
@@ -1969,18 +1954,12 @@
     <t>EWS-RO-Solr-Indexing-Daily-Prd-wf</t>
   </si>
   <si>
-    <t>EWS-RS-Ingest-Incremental-Daily-Prd-wf</t>
-  </si>
-  <si>
     <t>EWS-Solr-Reprocess-Weekly-Prd-wf</t>
   </si>
   <si>
     <t>EWS-TECHLINE-Solr-Indexing-Daily-Prd-wf</t>
   </si>
   <si>
-    <t>EWS-TR-Ingest-Incremental-Daily-Prd-wf</t>
-  </si>
-  <si>
     <t>EWS-VHCL-RCL-Ingest-Incremental-Daily-Prd-wf</t>
   </si>
   <si>
@@ -1996,262 +1975,184 @@
     <t>BB</t>
   </si>
   <si>
-    <t>0016884-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:40 MDT</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:49 MDT</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:00 MDT</t>
-  </si>
-  <si>
-    <t>0016827-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:10 MDT</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:12 MDT</t>
-  </si>
-  <si>
-    <t>2020-07-10 00:16 MDT</t>
-  </si>
-  <si>
-    <t>0017025-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-10 01:05 MDT</t>
-  </si>
-  <si>
-    <t>0016850-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:20 MDT</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:31 MDT</t>
-  </si>
-  <si>
-    <t>0016808-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:18 MDT</t>
-  </si>
-  <si>
-    <t>0016888-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:52 MDT</t>
-  </si>
-  <si>
     <t>0016290-200703053901501-oozie-oozi-W</t>
   </si>
   <si>
-    <t>2020-07-09 18:00 MDT</t>
-  </si>
-  <si>
-    <t>2020-07-09 20:09 MDT</t>
-  </si>
-  <si>
-    <t>0017018-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-10 01:00 MDT</t>
-  </si>
-  <si>
-    <t>0016787-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 22:50 MDT</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:05 MDT</t>
-  </si>
-  <si>
     <t>0016180-200703053901501-oozie-oozi-W</t>
   </si>
   <si>
-    <t>2020-07-09 17:00 MDT</t>
-  </si>
-  <si>
-    <t>2020-07-09 17:44 MDT</t>
-  </si>
-  <si>
     <t>0016390-200703053901501-oozie-oozi-W</t>
   </si>
   <si>
-    <t>2020-07-09 19:00 MDT</t>
-  </si>
-  <si>
-    <t>2020-07-09 19:31 MDT</t>
-  </si>
-  <si>
-    <t>0016866-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:30 MDT</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:39 MDT</t>
-  </si>
-  <si>
-    <t>0016496-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 20:07 MDT</t>
-  </si>
-  <si>
-    <t>0016906-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:50 MDT</t>
-  </si>
-  <si>
-    <t>2020-07-10 00:03 MDT</t>
-  </si>
-  <si>
-    <t>0017016-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>0016849-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:24 MDT</t>
-  </si>
-  <si>
-    <t>0016829-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:16 MDT</t>
-  </si>
-  <si>
-    <t>0016848-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:25 MDT</t>
-  </si>
-  <si>
-    <t>0016811-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:04 MDT</t>
-  </si>
-  <si>
-    <t>0016887-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:58 MDT</t>
-  </si>
-  <si>
-    <t>0016903-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-10 00:08 MDT</t>
-  </si>
-  <si>
-    <t>0016812-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>0016904-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>0016828-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:26 MDT</t>
-  </si>
-  <si>
-    <t>0016885-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
-    <t>0016943-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>0016809-200703053901501-oozie-oozi-W</t>
-  </si>
-  <si>
-    <t>2020-07-09 23:08 MDT</t>
-  </si>
-  <si>
-    <t>XXX</t>
-  </si>
-  <si>
-    <t>x981139</t>
-  </si>
-  <si>
-    <t>x981140</t>
-  </si>
-  <si>
-    <t>x981141</t>
-  </si>
-  <si>
-    <t>x981142</t>
-  </si>
-  <si>
-    <t>x981143</t>
-  </si>
-  <si>
-    <t>x981144</t>
-  </si>
-  <si>
-    <t>x981145</t>
-  </si>
-  <si>
-    <t>x981146</t>
-  </si>
-  <si>
-    <t>x981147</t>
-  </si>
-  <si>
-    <t>x981148</t>
-  </si>
-  <si>
-    <t>x981149</t>
-  </si>
-  <si>
-    <t>x981150</t>
-  </si>
-  <si>
-    <t>x981151</t>
-  </si>
-  <si>
-    <t>x981152</t>
-  </si>
-  <si>
-    <t>x981153</t>
-  </si>
-  <si>
-    <t>x981154</t>
-  </si>
-  <si>
-    <t>x981155</t>
-  </si>
-  <si>
-    <t>x981156</t>
-  </si>
-  <si>
-    <t>x981157</t>
-  </si>
-  <si>
-    <t>x981158</t>
-  </si>
-  <si>
-    <t>x981159</t>
-  </si>
-  <si>
-    <t>x981160</t>
-  </si>
-  <si>
-    <t>x981161</t>
-  </si>
-  <si>
-    <t>x981162</t>
+    <t>0025631-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>GMT</t>
+  </si>
+  <si>
+    <t>0025578-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024879-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>DBSRO-data-alert-BDE-PRD-wf</t>
+  </si>
+  <si>
+    <t>0025672-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025597-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025354-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024401-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025630-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024614-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025645-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025095-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025094-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025613-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024084-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024500-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025667-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024741-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024984-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025009-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024709-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024442-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024422-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024441-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024405-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024481-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024499-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024406-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024497-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024423-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0024480-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025146-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025145-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025590-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025666-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0251929-191005133633790-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>x095718</t>
+  </si>
+  <si>
+    <t>0014342-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>x987732</t>
+  </si>
+  <si>
+    <t>PRD Workflow Jobs on 2020-07-13"</t>
+  </si>
+  <si>
+    <t>PRD Coordinator Jobs on 2020-07-13"</t>
+  </si>
+  <si>
+    <t>STG Workflow Jobs on 2020-07-13"</t>
+  </si>
+  <si>
+    <t>STG Coordinator Jobs on 2020-07-13"</t>
+  </si>
+  <si>
+    <t>0022707-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>EQUIP-AVES-Condense-Weekly-BDE-PRD-wf</t>
+  </si>
+  <si>
+    <t>0022604-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0022709-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>0022710-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0156220-200426011532257-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0025965-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0022712-200703053901501-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0166484-200426011532257-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0166485-200426011532257-oozie-oozi-W</t>
+  </si>
+  <si>
+    <t>0166410-200426011532257-oozie-oozi-W</t>
   </si>
 </sst>
 </file>
@@ -2602,24 +2503,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>93</v>
       </c>
@@ -2633,7 +2540,7 @@
         <v>608</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -2642,15 +2549,27 @@
         <v>607</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>302</v>
+        <v>642</v>
+      </c>
+      <c r="I1" s="4">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>691</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>692</v>
       </c>
       <c r="C2" t="s">
         <v>307</v>
@@ -2658,29 +2577,34 @@
       <c r="D2" t="s">
         <v>571</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H2" t="e">
-        <f>VLOOKUP(I2,B:B,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>304</v>
+      <c r="E2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44024</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H2" t="s">
+        <v>648</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44024</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.54262731481481474</v>
+      </c>
+      <c r="K2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>653</v>
       </c>
       <c r="B3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
         <v>307</v>
@@ -2688,29 +2612,34 @@
       <c r="D3" t="s">
         <v>571</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H55" si="0">VLOOKUP(I3,B:B,1,FALSE)</f>
-        <v>EQUIP-AVES-Ingest-Daily-BDE-PRD-wf</v>
-      </c>
-      <c r="I3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>305</v>
+      <c r="E3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="H3" t="s">
+        <v>648</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="K3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>693</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>609</v>
       </c>
       <c r="C4" t="s">
         <v>307</v>
@@ -2718,59 +2647,69 @@
       <c r="D4" t="s">
         <v>571</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>308</v>
+      <c r="E4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44024</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>648</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44024</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.50164351851851852</v>
+      </c>
+      <c r="K4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>649</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
         <v>571</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>ConsumerAffairs-Ingest-Daily-BDE-PRD-wf</v>
-      </c>
-      <c r="I5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>310</v>
+      <c r="E5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="H5" t="s">
+        <v>648</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="K5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>694</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>610</v>
       </c>
       <c r="C6" t="s">
         <v>307</v>
@@ -2778,32 +2717,37 @@
       <c r="D6" t="s">
         <v>571</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="H6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I6" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>663</v>
+      <c r="E6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H6" t="s">
+        <v>648</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.54410879629629627</v>
+      </c>
+      <c r="K6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>656</v>
       </c>
       <c r="B7" t="s">
-        <v>613</v>
+        <v>414</v>
       </c>
       <c r="C7" t="s">
-        <v>425</v>
+        <v>307</v>
       </c>
       <c r="D7" t="s">
         <v>571</v>
@@ -2811,26 +2755,31 @@
       <c r="E7" t="s">
         <v>303</v>
       </c>
-      <c r="F7" t="s">
-        <v>653</v>
-      </c>
-      <c r="G7" t="s">
-        <v>664</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>EQUIP-ConsumerAffairs-Solr-Daily-BDE-PRD-wf</v>
-      </c>
-      <c r="I7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>311</v>
+      <c r="F7" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="H7" t="s">
+        <v>648</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="K7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>696</v>
       </c>
       <c r="B8" t="s">
-        <v>414</v>
+        <v>611</v>
       </c>
       <c r="C8" t="s">
         <v>307</v>
@@ -2838,29 +2787,34 @@
       <c r="D8" t="s">
         <v>571</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="H8" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I8" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>667</v>
+      <c r="E8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44024</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H8" t="s">
+        <v>648</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.56042824074074071</v>
+      </c>
+      <c r="K8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>647</v>
       </c>
       <c r="B9" t="s">
-        <v>616</v>
+        <v>410</v>
       </c>
       <c r="C9" t="s">
         <v>307</v>
@@ -2871,29 +2825,34 @@
       <c r="E9" t="s">
         <v>303</v>
       </c>
-      <c r="F9" t="s">
-        <v>668</v>
-      </c>
-      <c r="G9" t="s">
-        <v>669</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>Claims-Ingest-Daily-BDE-PRD-wf</v>
-      </c>
-      <c r="I9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>670</v>
+      <c r="F9" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="H9" t="s">
+        <v>648</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="K9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>654</v>
       </c>
       <c r="B10" t="s">
-        <v>619</v>
+        <v>413</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
         <v>571</v>
@@ -2901,56 +2860,66 @@
       <c r="E10" t="s">
         <v>303</v>
       </c>
-      <c r="F10" t="s">
-        <v>671</v>
-      </c>
-      <c r="G10" t="s">
-        <v>303</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>EQUIP-Claims-Condense-Daily-BDE-PRD-wf</v>
-      </c>
-      <c r="I10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>312</v>
+      <c r="F10" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H10" t="s">
+        <v>648</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="K10" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>655</v>
       </c>
       <c r="B11" t="s">
-        <v>415</v>
+        <v>612</v>
       </c>
       <c r="C11" t="s">
-        <v>307</v>
+        <v>425</v>
       </c>
       <c r="D11" t="s">
         <v>571</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>EQUIP-Claims-Solr-Daily-BDE-PRD-wf</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="E11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H11" t="s">
+        <v>648</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B12" t="s">
         <v>613</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="B12" t="s">
-        <v>617</v>
       </c>
       <c r="C12" t="s">
         <v>307</v>
@@ -2961,26 +2930,31 @@
       <c r="E12" t="s">
         <v>303</v>
       </c>
-      <c r="F12" t="s">
-        <v>676</v>
-      </c>
-      <c r="G12" t="s">
-        <v>677</v>
-      </c>
-      <c r="H12" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="F12" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H12" t="s">
+        <v>648</v>
+      </c>
+      <c r="I12" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="K12" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>697</v>
+      </c>
+      <c r="B13" t="s">
         <v>614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="B13" t="s">
-        <v>623</v>
       </c>
       <c r="C13" t="s">
         <v>307</v>
@@ -2991,26 +2965,31 @@
       <c r="E13" t="s">
         <v>303</v>
       </c>
-      <c r="F13" t="s">
-        <v>679</v>
-      </c>
-      <c r="G13" t="s">
-        <v>680</v>
-      </c>
-      <c r="H13" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="F13" s="1">
+        <v>44009</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>648</v>
+      </c>
+      <c r="I13" s="1">
+        <v>44009</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.49951388888888887</v>
+      </c>
+      <c r="K13" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B14" t="s">
         <v>615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" t="s">
-        <v>416</v>
       </c>
       <c r="C14" t="s">
         <v>307</v>
@@ -3018,30 +2997,35 @@
       <c r="D14" t="s">
         <v>571</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>EQUIP-Gears-3.0-Adhoc-BDE-PRD-wf</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="E14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44021</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>695</v>
+      </c>
+      <c r="I14" s="1">
+        <v>44021</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.83958333333333324</v>
+      </c>
+      <c r="K14" t="s">
+        <v>695</v>
+      </c>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B15" t="s">
         <v>616</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="B15" t="s">
-        <v>627</v>
       </c>
       <c r="C15" t="s">
         <v>307</v>
@@ -3052,458 +3036,533 @@
       <c r="E15" t="s">
         <v>303</v>
       </c>
-      <c r="F15" t="s">
-        <v>568</v>
-      </c>
-      <c r="G15" t="s">
-        <v>685</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>EQUIP-Materialized-Views-BDE-PRD-wf</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="F15" s="1">
+        <v>44021</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H15" t="s">
+        <v>695</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44021</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="K15" t="s">
+        <v>695</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>698</v>
+      </c>
+      <c r="B16" t="s">
         <v>617</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="B16" t="s">
-        <v>628</v>
       </c>
       <c r="C16" t="s">
         <v>307</v>
       </c>
       <c r="D16" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E16" t="s">
         <v>303</v>
       </c>
-      <c r="F16" t="s">
-        <v>687</v>
-      </c>
-      <c r="G16" t="s">
-        <v>688</v>
-      </c>
-      <c r="H16" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="F16" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="H16" t="s">
+        <v>695</v>
+      </c>
+      <c r="I16" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.83826388888888881</v>
+      </c>
+      <c r="K16" t="s">
+        <v>695</v>
+      </c>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>658</v>
+      </c>
+      <c r="B17" t="s">
+        <v>415</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>571</v>
+      </c>
+      <c r="E17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>648</v>
+      </c>
+      <c r="I17" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.46479166666666666</v>
+      </c>
+      <c r="K17" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>657</v>
+      </c>
+      <c r="B18" t="s">
         <v>618</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B17" t="s">
-        <v>417</v>
-      </c>
-      <c r="C17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" t="s">
-        <v>578</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>EQUIP-INSPECT-Ingest-Daily-BDE-PRD-wf</v>
-      </c>
-      <c r="I17" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="B18" t="s">
-        <v>634</v>
       </c>
       <c r="C18" t="s">
         <v>307</v>
       </c>
       <c r="D18" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E18" t="s">
         <v>303</v>
       </c>
-      <c r="F18" t="s">
-        <v>661</v>
-      </c>
-      <c r="G18" t="s">
-        <v>691</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>EQUIP-incident-rate-daily-wf</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="F18" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H18" t="s">
+        <v>648</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="K18" t="s">
+        <v>648</v>
+      </c>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>700</v>
+      </c>
+      <c r="B19" t="s">
         <v>619</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="B19" t="s">
-        <v>635</v>
       </c>
       <c r="C19" t="s">
         <v>307</v>
       </c>
       <c r="D19" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E19" t="s">
         <v>303</v>
       </c>
-      <c r="F19" t="s">
-        <v>655</v>
-      </c>
-      <c r="G19" t="s">
-        <v>693</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="F19" s="1">
+        <v>44013</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="H19" t="s">
+        <v>648</v>
+      </c>
+      <c r="I19" s="1">
+        <v>44013</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.53332175925925929</v>
+      </c>
+      <c r="K19" t="s">
+        <v>648</v>
+      </c>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>701</v>
+      </c>
+      <c r="B20" t="s">
         <v>620</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="B20" t="s">
-        <v>636</v>
       </c>
       <c r="C20" t="s">
         <v>307</v>
       </c>
       <c r="D20" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E20" t="s">
         <v>303</v>
       </c>
-      <c r="F20" t="s">
-        <v>661</v>
-      </c>
-      <c r="G20" t="s">
-        <v>695</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="F20" s="1">
+        <v>44013</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="H20" t="s">
+        <v>648</v>
+      </c>
+      <c r="I20" s="1">
+        <v>44013</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.53331018518518525</v>
+      </c>
+      <c r="K20" t="s">
+        <v>648</v>
+      </c>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>702</v>
+      </c>
+      <c r="B21" t="s">
         <v>621</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="B21" t="s">
-        <v>638</v>
       </c>
       <c r="C21" t="s">
         <v>307</v>
       </c>
       <c r="D21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E21" t="s">
         <v>303</v>
       </c>
-      <c r="F21" t="s">
-        <v>653</v>
-      </c>
-      <c r="G21" t="s">
-        <v>697</v>
-      </c>
-      <c r="H21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I21" t="s">
-        <v>622</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>698</v>
+      <c r="F21" s="1">
+        <v>44013</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.50020833333333337</v>
+      </c>
+      <c r="H21" t="s">
+        <v>648</v>
+      </c>
+      <c r="I21" s="1">
+        <v>44013</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="K21" t="s">
+        <v>648</v>
+      </c>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>660</v>
       </c>
       <c r="B22" t="s">
-        <v>640</v>
+        <v>430</v>
       </c>
       <c r="C22" t="s">
         <v>307</v>
       </c>
       <c r="D22" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E22" t="s">
         <v>303</v>
       </c>
-      <c r="F22" t="s">
-        <v>651</v>
-      </c>
-      <c r="G22" t="s">
-        <v>699</v>
-      </c>
-      <c r="H22" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I22" t="s">
-        <v>430</v>
-      </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H22" t="s">
+        <v>648</v>
+      </c>
+      <c r="I22" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K22" t="s">
+        <v>648</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>700</v>
+        <v>645</v>
       </c>
       <c r="B23" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="C23" t="s">
         <v>307</v>
       </c>
       <c r="D23" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E23" t="s">
         <v>303</v>
       </c>
-      <c r="F23" t="s">
-        <v>687</v>
-      </c>
-      <c r="G23" t="s">
-        <v>701</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>EQUIP-pfp-daily-ingest-wf</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="F23" s="1">
+        <v>44021</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H23" t="s">
+        <v>695</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44021</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="K23" t="s">
+        <v>695</v>
+      </c>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>679</v>
+      </c>
+      <c r="B24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" t="s">
+        <v>571</v>
+      </c>
+      <c r="E24" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>648</v>
+      </c>
+      <c r="I24" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="K24" t="s">
+        <v>648</v>
+      </c>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>680</v>
+      </c>
+      <c r="B25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" t="s">
+        <v>571</v>
+      </c>
+      <c r="E25" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>648</v>
+      </c>
+      <c r="I25" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K25" t="s">
+        <v>648</v>
+      </c>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>699</v>
+      </c>
+      <c r="B26" t="s">
         <v>623</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="B24" t="s">
-        <v>645</v>
-      </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>578</v>
-      </c>
-      <c r="E24" t="s">
-        <v>303</v>
-      </c>
-      <c r="F24" t="s">
-        <v>653</v>
-      </c>
-      <c r="G24" t="s">
-        <v>303</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>QCS-survey-Ingest-Fullload-Daily-BDE-PRD-wf</v>
-      </c>
-      <c r="I24" t="s">
-        <v>418</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="B25" t="s">
-        <v>646</v>
-      </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" t="s">
-        <v>578</v>
-      </c>
-      <c r="E25" t="s">
-        <v>303</v>
-      </c>
-      <c r="F25" t="s">
-        <v>687</v>
-      </c>
-      <c r="G25" t="s">
-        <v>303</v>
-      </c>
-      <c r="H25" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I25" t="s">
-        <v>624</v>
-      </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="B26" t="s">
-        <v>647</v>
       </c>
       <c r="C26" t="s">
         <v>307</v>
       </c>
       <c r="D26" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E26" t="s">
         <v>303</v>
       </c>
-      <c r="F26" t="s">
-        <v>655</v>
-      </c>
-      <c r="G26" t="s">
-        <v>705</v>
-      </c>
-      <c r="H26" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I26" t="s">
-        <v>625</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>706</v>
+      <c r="F26" s="1">
+        <v>44024</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H26" t="s">
+        <v>648</v>
+      </c>
+      <c r="I26" s="1">
+        <v>44024</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.54342592592592587</v>
+      </c>
+      <c r="K26" t="s">
+        <v>648</v>
+      </c>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>661</v>
       </c>
       <c r="B27" t="s">
-        <v>648</v>
+        <v>416</v>
       </c>
       <c r="C27" t="s">
         <v>307</v>
       </c>
       <c r="D27" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E27" t="s">
         <v>303</v>
       </c>
-      <c r="F27" t="s">
-        <v>651</v>
-      </c>
-      <c r="G27" t="s">
-        <v>699</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>EQUIP-Techline-Solr-Daily-BDE-PRD-wf</v>
-      </c>
-      <c r="I27" t="s">
-        <v>416</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>315</v>
+      <c r="F27" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="H27" t="s">
+        <v>648</v>
+      </c>
+      <c r="I27" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="K27" t="s">
+        <v>648</v>
+      </c>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>682</v>
       </c>
       <c r="B28" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C28" t="s">
-        <v>307</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
         <v>571</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="H28" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I28" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>316</v>
+      <c r="E28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44024</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="H28" t="s">
+        <v>648</v>
+      </c>
+      <c r="I28" s="1">
+        <v>44024</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.62723379629629628</v>
+      </c>
+      <c r="K28" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>682</v>
       </c>
       <c r="B29" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
         <v>571</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F29" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>Techline-Ingest-Daily-BDE-PRD-wf</v>
-      </c>
-      <c r="I29" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>317</v>
+      <c r="E29" t="s">
+        <v>303</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>648</v>
+      </c>
+      <c r="I29" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="K29" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>662</v>
       </c>
       <c r="B30" t="s">
-        <v>318</v>
+        <v>624</v>
       </c>
       <c r="C30" t="s">
         <v>307</v>
@@ -3511,776 +3570,766 @@
       <c r="D30" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>EQUIP-Vehicle-Extract-Daily-prd-wf</v>
-      </c>
-      <c r="I30" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>319</v>
+      <c r="E30" t="s">
+        <v>303</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G30" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>648</v>
+      </c>
+      <c r="I30" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J30" s="2">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>652</v>
       </c>
       <c r="B31" t="s">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="C31" t="s">
-        <v>307</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
         <v>571</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>dbsro-wf</v>
-      </c>
-      <c r="I31" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="E31" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G31" s="2">
         <v>0</v>
       </c>
+      <c r="H31" t="s">
+        <v>648</v>
+      </c>
+      <c r="I31" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.99688657407407411</v>
+      </c>
+      <c r="K31" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>681</v>
+      </c>
       <c r="B32" t="s">
-        <v>711</v>
+        <v>318</v>
       </c>
       <c r="C32" t="s">
         <v>307</v>
       </c>
       <c r="D32" t="s">
-        <v>712</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>shell-wf</v>
-      </c>
-      <c r="I32" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0</v>
+        <v>571</v>
+      </c>
+      <c r="E32" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="H32" t="s">
+        <v>648</v>
+      </c>
+      <c r="I32" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="K32" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>650</v>
       </c>
       <c r="B33" t="s">
-        <v>711</v>
+        <v>651</v>
       </c>
       <c r="C33" t="s">
         <v>307</v>
       </c>
       <c r="D33" t="s">
-        <v>713</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>QCS-survey-Ingest-Incremental-Daily-BDE-PRD-wf</v>
-      </c>
-      <c r="I33" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0</v>
+        <v>571</v>
+      </c>
+      <c r="E33" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H33" t="s">
+        <v>648</v>
+      </c>
+      <c r="I33" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="K33" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>663</v>
       </c>
       <c r="B34" t="s">
-        <v>711</v>
+        <v>625</v>
       </c>
       <c r="C34" t="s">
         <v>307</v>
       </c>
       <c r="D34" t="s">
-        <v>714</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v>EWS-CA-Solr-Indexing-Daily-Prd-wf</v>
-      </c>
-      <c r="I34" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E34" t="s">
+        <v>303</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H34" t="s">
+        <v>648</v>
+      </c>
+      <c r="I34" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="K34" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>664</v>
       </c>
       <c r="B35" t="s">
-        <v>711</v>
+        <v>417</v>
       </c>
       <c r="C35" t="s">
         <v>307</v>
       </c>
       <c r="D35" t="s">
-        <v>715</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v>EWS-Drive-Common-Ingest-Daily-Prd-wf</v>
-      </c>
-      <c r="I35" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E35" t="s">
+        <v>303</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H35" t="s">
+        <v>648</v>
+      </c>
+      <c r="I35" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="K35" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>665</v>
       </c>
       <c r="B36" t="s">
-        <v>711</v>
+        <v>626</v>
       </c>
       <c r="C36" t="s">
         <v>307</v>
       </c>
       <c r="D36" t="s">
-        <v>716</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H36" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I36" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E36" t="s">
+        <v>303</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="H36" t="s">
+        <v>648</v>
+      </c>
+      <c r="I36" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K36" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>666</v>
       </c>
       <c r="B37" t="s">
-        <v>711</v>
+        <v>627</v>
       </c>
       <c r="C37" t="s">
         <v>307</v>
       </c>
       <c r="D37" t="s">
-        <v>717</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H37" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I37" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E37" t="s">
+        <v>303</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H37" t="s">
+        <v>648</v>
+      </c>
+      <c r="I37" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="K37" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>667</v>
       </c>
       <c r="B38" t="s">
-        <v>711</v>
+        <v>628</v>
       </c>
       <c r="C38" t="s">
         <v>307</v>
       </c>
       <c r="D38" t="s">
-        <v>718</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I38" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E38" t="s">
+        <v>303</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H38" t="s">
+        <v>648</v>
+      </c>
+      <c r="I38" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="K38" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>668</v>
       </c>
       <c r="B39" t="s">
-        <v>711</v>
+        <v>629</v>
       </c>
       <c r="C39" t="s">
         <v>307</v>
       </c>
       <c r="D39" t="s">
-        <v>719</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H39" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I39" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E39" t="s">
+        <v>303</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="H39" t="s">
+        <v>648</v>
+      </c>
+      <c r="I39" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K39" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>669</v>
       </c>
       <c r="B40" t="s">
-        <v>711</v>
+        <v>630</v>
       </c>
       <c r="C40" t="s">
         <v>307</v>
       </c>
       <c r="D40" t="s">
-        <v>720</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H40" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I40" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E40" t="s">
+        <v>303</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H40" t="s">
+        <v>648</v>
+      </c>
+      <c r="I40" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="K40" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>670</v>
       </c>
       <c r="B41" t="s">
-        <v>711</v>
+        <v>631</v>
       </c>
       <c r="C41" t="s">
         <v>307</v>
       </c>
       <c r="D41" t="s">
-        <v>721</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v>EWS-NHTSA-IVSTGN-Ingest-Daily-Prd-wf</v>
-      </c>
-      <c r="I41" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E41" t="s">
+        <v>303</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H41" t="s">
+        <v>648</v>
+      </c>
+      <c r="I41" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.21875</v>
+      </c>
+      <c r="K41" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>671</v>
       </c>
       <c r="B42" t="s">
-        <v>711</v>
+        <v>632</v>
       </c>
       <c r="C42" t="s">
         <v>307</v>
       </c>
       <c r="D42" t="s">
-        <v>722</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>EWS-NHTSA-RCL-Ingest-Daily-Prd-wf</v>
-      </c>
-      <c r="I42" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E42" t="s">
+        <v>303</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H42" t="s">
+        <v>648</v>
+      </c>
+      <c r="I42" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K42" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>672</v>
       </c>
       <c r="B43" t="s">
-        <v>711</v>
+        <v>633</v>
       </c>
       <c r="C43" t="s">
         <v>307</v>
       </c>
       <c r="D43" t="s">
-        <v>723</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="0"/>
-        <v>EWS-NHTSA-SVC-Ingest-Daily-Prd-wf</v>
-      </c>
-      <c r="I43" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E43" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H43" t="s">
+        <v>648</v>
+      </c>
+      <c r="I43" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="K43" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>683</v>
       </c>
       <c r="B44" t="s">
-        <v>711</v>
+        <v>634</v>
       </c>
       <c r="C44" t="s">
         <v>307</v>
       </c>
       <c r="D44" t="s">
-        <v>724</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H44" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I44" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>0</v>
+        <v>684</v>
+      </c>
+      <c r="E44" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44" s="1">
+        <v>43856</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.24657407407407406</v>
+      </c>
+      <c r="H44" t="s">
+        <v>648</v>
+      </c>
+      <c r="I44" s="1">
+        <v>43856</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.24770833333333334</v>
+      </c>
+      <c r="K44" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>673</v>
       </c>
       <c r="B45" t="s">
-        <v>711</v>
+        <v>635</v>
       </c>
       <c r="C45" t="s">
         <v>307</v>
       </c>
       <c r="D45" t="s">
-        <v>725</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v>EWS-RCL-Ingest-Daily-Prd-wf</v>
-      </c>
-      <c r="I45" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E45" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="H45" t="s">
+        <v>648</v>
+      </c>
+      <c r="I45" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.24513888888888888</v>
+      </c>
+      <c r="K45" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>685</v>
       </c>
       <c r="B46" t="s">
-        <v>711</v>
+        <v>636</v>
       </c>
       <c r="C46" t="s">
         <v>307</v>
       </c>
       <c r="D46" t="s">
-        <v>726</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H46" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I46" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0</v>
+        <v>686</v>
+      </c>
+      <c r="E46" t="s">
+        <v>303</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44021</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="H46" t="s">
+        <v>648</v>
+      </c>
+      <c r="I46" s="1">
+        <v>44021</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.19813657407407406</v>
+      </c>
+      <c r="K46" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>674</v>
       </c>
       <c r="B47" t="s">
-        <v>711</v>
+        <v>637</v>
       </c>
       <c r="C47" t="s">
         <v>307</v>
       </c>
       <c r="D47" t="s">
-        <v>727</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="0"/>
-        <v>EWS-RO-Solr-Indexing-Daily-Prd-wf</v>
-      </c>
-      <c r="I47" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E47" t="s">
+        <v>303</v>
+      </c>
+      <c r="F47" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H47" t="s">
+        <v>648</v>
+      </c>
+      <c r="I47" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>675</v>
       </c>
       <c r="B48" t="s">
-        <v>711</v>
+        <v>638</v>
       </c>
       <c r="C48" t="s">
         <v>307</v>
       </c>
       <c r="D48" t="s">
-        <v>728</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H48" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I48" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E48" t="s">
+        <v>303</v>
+      </c>
+      <c r="F48" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H48" t="s">
+        <v>648</v>
+      </c>
+      <c r="I48" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="K48" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>676</v>
       </c>
       <c r="B49" t="s">
-        <v>711</v>
+        <v>639</v>
       </c>
       <c r="C49" t="s">
         <v>307</v>
       </c>
       <c r="D49" t="s">
-        <v>729</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H49" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I49" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E49" t="s">
+        <v>303</v>
+      </c>
+      <c r="F49" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H49" t="s">
+        <v>648</v>
+      </c>
+      <c r="I49" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="K49" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>677</v>
       </c>
       <c r="B50" t="s">
-        <v>711</v>
+        <v>640</v>
       </c>
       <c r="C50" t="s">
         <v>307</v>
       </c>
       <c r="D50" t="s">
-        <v>730</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="0"/>
-        <v>EWS-TECHLINE-Solr-Indexing-Daily-Prd-wf</v>
-      </c>
-      <c r="I50" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>0</v>
+        <v>578</v>
+      </c>
+      <c r="E50" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H50" t="s">
+        <v>648</v>
+      </c>
+      <c r="I50" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K50" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>678</v>
       </c>
       <c r="B51" t="s">
-        <v>711</v>
+        <v>641</v>
       </c>
       <c r="C51" t="s">
         <v>307</v>
       </c>
       <c r="D51" t="s">
-        <v>731</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H51" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I51" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>711</v>
-      </c>
-      <c r="C52" t="s">
-        <v>307</v>
-      </c>
-      <c r="D52" t="s">
-        <v>732</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="0"/>
-        <v>EWS-VHCL-RCL-Ingest-Incremental-Daily-Prd-wf</v>
-      </c>
-      <c r="I52" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>711</v>
-      </c>
-      <c r="C53" t="s">
-        <v>307</v>
-      </c>
-      <c r="D53" t="s">
-        <v>733</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="0"/>
-        <v>EWS-VHCL-Solr-Indexing-Daily-Prd-wf</v>
-      </c>
-      <c r="I53" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>711</v>
-      </c>
-      <c r="C54" t="s">
-        <v>307</v>
-      </c>
-      <c r="D54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="0"/>
-        <v>EWS-VOQ-Ingest-Daily-Prd-wf</v>
-      </c>
-      <c r="I54" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>711</v>
-      </c>
-      <c r="C55" t="s">
-        <v>307</v>
-      </c>
-      <c r="D55" t="s">
-        <v>735</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v>EWS-WRNTY-Solr-Indexing-Daily-Prd-wf</v>
-      </c>
-      <c r="I55" t="s">
+        <v>578</v>
+      </c>
+      <c r="E51" t="s">
+        <v>303</v>
+      </c>
+      <c r="F51" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="H51" t="s">
+        <v>648</v>
+      </c>
+      <c r="I51" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="K51" t="s">
         <v>648</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:H55">
-    <sortCondition ref="B1:B55"/>
+  <sortState ref="A2:H55">
+    <sortCondition descending="1" ref="H1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -4289,28 +4338,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <sortState ref="A1:A51">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5591,7 +5623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
@@ -5605,13 +5637,3517 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:K104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="H2" t="s">
+        <v>648</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="K2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="H3" t="s">
+        <v>648</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="K3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H4" t="s">
+        <v>648</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="K4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>571</v>
+      </c>
+      <c r="E5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="H5" t="s">
+        <v>648</v>
+      </c>
+      <c r="I5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" t="s">
+        <v>571</v>
+      </c>
+      <c r="E6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="H6" t="s">
+        <v>648</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="K6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" t="s">
+        <v>571</v>
+      </c>
+      <c r="E7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H7" t="s">
+        <v>648</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="K7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H8" t="s">
+        <v>648</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="K8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>656</v>
+      </c>
+      <c r="B9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" t="s">
+        <v>571</v>
+      </c>
+      <c r="E9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="H9" t="s">
+        <v>648</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="K9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>657</v>
+      </c>
+      <c r="B10" t="s">
+        <v>618</v>
+      </c>
+      <c r="C10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" t="s">
+        <v>571</v>
+      </c>
+      <c r="E10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H10" t="s">
+        <v>648</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>658</v>
+      </c>
+      <c r="B11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="H11" t="s">
+        <v>648</v>
+      </c>
+      <c r="I11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B12" t="s">
+        <v>613</v>
+      </c>
+      <c r="C12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" t="s">
+        <v>571</v>
+      </c>
+      <c r="E12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H12" t="s">
+        <v>648</v>
+      </c>
+      <c r="I12" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="K12" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>660</v>
+      </c>
+      <c r="B13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" t="s">
+        <v>571</v>
+      </c>
+      <c r="E13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H13" t="s">
+        <v>648</v>
+      </c>
+      <c r="I13" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K13" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" t="s">
+        <v>571</v>
+      </c>
+      <c r="E14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="H14" t="s">
+        <v>648</v>
+      </c>
+      <c r="I14" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="K14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>662</v>
+      </c>
+      <c r="B15" t="s">
+        <v>624</v>
+      </c>
+      <c r="C15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" t="s">
+        <v>571</v>
+      </c>
+      <c r="E15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G15" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>648</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J15" s="2">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>663</v>
+      </c>
+      <c r="B16" t="s">
+        <v>625</v>
+      </c>
+      <c r="C16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" t="s">
+        <v>578</v>
+      </c>
+      <c r="E16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H16" t="s">
+        <v>648</v>
+      </c>
+      <c r="I16" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="K16" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>664</v>
+      </c>
+      <c r="B17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" t="s">
+        <v>578</v>
+      </c>
+      <c r="E17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H17" t="s">
+        <v>648</v>
+      </c>
+      <c r="I17" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="K17" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>665</v>
+      </c>
+      <c r="B18" t="s">
+        <v>626</v>
+      </c>
+      <c r="C18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" t="s">
+        <v>578</v>
+      </c>
+      <c r="E18" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="H18" t="s">
+        <v>648</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K18" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>666</v>
+      </c>
+      <c r="B19" t="s">
+        <v>627</v>
+      </c>
+      <c r="C19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" t="s">
+        <v>578</v>
+      </c>
+      <c r="E19" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H19" t="s">
+        <v>648</v>
+      </c>
+      <c r="I19" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="K19" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>667</v>
+      </c>
+      <c r="B20" t="s">
+        <v>628</v>
+      </c>
+      <c r="C20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" t="s">
+        <v>578</v>
+      </c>
+      <c r="E20" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H20" t="s">
+        <v>648</v>
+      </c>
+      <c r="I20" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="K20" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>668</v>
+      </c>
+      <c r="B21" t="s">
+        <v>629</v>
+      </c>
+      <c r="C21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" t="s">
+        <v>578</v>
+      </c>
+      <c r="E21" t="s">
+        <v>303</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="H21" t="s">
+        <v>648</v>
+      </c>
+      <c r="I21" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>669</v>
+      </c>
+      <c r="B22" t="s">
+        <v>630</v>
+      </c>
+      <c r="C22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" t="s">
+        <v>578</v>
+      </c>
+      <c r="E22" t="s">
+        <v>303</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H22" t="s">
+        <v>648</v>
+      </c>
+      <c r="I22" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="K22" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>670</v>
+      </c>
+      <c r="B23" t="s">
+        <v>631</v>
+      </c>
+      <c r="C23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" t="s">
+        <v>578</v>
+      </c>
+      <c r="E23" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H23" t="s">
+        <v>648</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.21875</v>
+      </c>
+      <c r="K23" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>671</v>
+      </c>
+      <c r="B24" t="s">
+        <v>632</v>
+      </c>
+      <c r="C24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" t="s">
+        <v>578</v>
+      </c>
+      <c r="E24" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H24" t="s">
+        <v>648</v>
+      </c>
+      <c r="I24" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K24" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>672</v>
+      </c>
+      <c r="B25" t="s">
+        <v>633</v>
+      </c>
+      <c r="C25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" t="s">
+        <v>578</v>
+      </c>
+      <c r="E25" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H25" t="s">
+        <v>648</v>
+      </c>
+      <c r="I25" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="K25" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>673</v>
+      </c>
+      <c r="B26" t="s">
+        <v>635</v>
+      </c>
+      <c r="C26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" t="s">
+        <v>578</v>
+      </c>
+      <c r="E26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="H26" t="s">
+        <v>648</v>
+      </c>
+      <c r="I26" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.24513888888888888</v>
+      </c>
+      <c r="K26" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>674</v>
+      </c>
+      <c r="B27" t="s">
+        <v>637</v>
+      </c>
+      <c r="C27" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" t="s">
+        <v>578</v>
+      </c>
+      <c r="E27" t="s">
+        <v>303</v>
+      </c>
+      <c r="F27" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H27" t="s">
+        <v>648</v>
+      </c>
+      <c r="I27" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>675</v>
+      </c>
+      <c r="B28" t="s">
+        <v>638</v>
+      </c>
+      <c r="C28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" t="s">
+        <v>578</v>
+      </c>
+      <c r="E28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H28" t="s">
+        <v>648</v>
+      </c>
+      <c r="I28" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="K28" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>676</v>
+      </c>
+      <c r="B29" t="s">
+        <v>639</v>
+      </c>
+      <c r="C29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" t="s">
+        <v>578</v>
+      </c>
+      <c r="E29" t="s">
+        <v>303</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H29" t="s">
+        <v>648</v>
+      </c>
+      <c r="I29" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="K29" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>677</v>
+      </c>
+      <c r="B30" t="s">
+        <v>640</v>
+      </c>
+      <c r="C30" t="s">
+        <v>307</v>
+      </c>
+      <c r="D30" t="s">
+        <v>578</v>
+      </c>
+      <c r="E30" t="s">
+        <v>303</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H30" t="s">
+        <v>648</v>
+      </c>
+      <c r="I30" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K30" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>678</v>
+      </c>
+      <c r="B31" t="s">
+        <v>641</v>
+      </c>
+      <c r="C31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" t="s">
+        <v>578</v>
+      </c>
+      <c r="E31" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="H31" t="s">
+        <v>648</v>
+      </c>
+      <c r="I31" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="K31" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>679</v>
+      </c>
+      <c r="B32" t="s">
+        <v>418</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" t="s">
+        <v>571</v>
+      </c>
+      <c r="E32" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>648</v>
+      </c>
+      <c r="I32" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="K32" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>680</v>
+      </c>
+      <c r="B33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C33" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" t="s">
+        <v>571</v>
+      </c>
+      <c r="E33" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>648</v>
+      </c>
+      <c r="I33" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K33" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>681</v>
+      </c>
+      <c r="B34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" t="s">
+        <v>571</v>
+      </c>
+      <c r="E34" t="s">
+        <v>303</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="H34" t="s">
+        <v>648</v>
+      </c>
+      <c r="I34" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="K34" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>682</v>
+      </c>
+      <c r="B35" t="s">
+        <v>420</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>571</v>
+      </c>
+      <c r="E35" t="s">
+        <v>303</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H35" t="s">
+        <v>648</v>
+      </c>
+      <c r="I35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H37" t="s">
+        <v>648</v>
+      </c>
+      <c r="I37" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="K37" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="1">
+        <v>43992</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H38" t="s">
+        <v>648</v>
+      </c>
+      <c r="I38" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K38" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H39" t="s">
+        <v>648</v>
+      </c>
+      <c r="I39" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K39" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H40" t="s">
+        <v>648</v>
+      </c>
+      <c r="I40" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="K40" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="H41" t="s">
+        <v>648</v>
+      </c>
+      <c r="I41" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="K41" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H42" t="s">
+        <v>648</v>
+      </c>
+      <c r="I42" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="K42" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H43" t="s">
+        <v>648</v>
+      </c>
+      <c r="I43" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="K43" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H44" t="s">
+        <v>648</v>
+      </c>
+      <c r="I44" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="K44" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H45" t="s">
+        <v>648</v>
+      </c>
+      <c r="I45" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K45" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="H46" t="s">
+        <v>648</v>
+      </c>
+      <c r="I46" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="K46" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="H47" t="s">
+        <v>648</v>
+      </c>
+      <c r="I47" s="1">
+        <v>44028</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="K47" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H48" t="s">
+        <v>648</v>
+      </c>
+      <c r="I48" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="K48" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H49" t="s">
+        <v>648</v>
+      </c>
+      <c r="I49" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K49" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H50" t="s">
+        <v>648</v>
+      </c>
+      <c r="I50" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="K50" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H51" t="s">
+        <v>648</v>
+      </c>
+      <c r="I51" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="K51" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="H52" t="s">
+        <v>648</v>
+      </c>
+      <c r="I52" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="K52" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>647</v>
+      </c>
+      <c r="B54" t="s">
+        <v>410</v>
+      </c>
+      <c r="C54" t="s">
+        <v>307</v>
+      </c>
+      <c r="D54" t="s">
+        <v>571</v>
+      </c>
+      <c r="E54" t="s">
+        <v>303</v>
+      </c>
+      <c r="F54" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="H54" t="s">
+        <v>648</v>
+      </c>
+      <c r="I54" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="K54" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>649</v>
+      </c>
+      <c r="B55" t="s">
+        <v>411</v>
+      </c>
+      <c r="C55" t="s">
+        <v>307</v>
+      </c>
+      <c r="D55" t="s">
+        <v>571</v>
+      </c>
+      <c r="E55" t="s">
+        <v>303</v>
+      </c>
+      <c r="F55" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="H55" t="s">
+        <v>648</v>
+      </c>
+      <c r="I55" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="K55" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>650</v>
+      </c>
+      <c r="B56" t="s">
+        <v>651</v>
+      </c>
+      <c r="C56" t="s">
+        <v>307</v>
+      </c>
+      <c r="D56" t="s">
+        <v>571</v>
+      </c>
+      <c r="E56" t="s">
+        <v>303</v>
+      </c>
+      <c r="F56" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H56" t="s">
+        <v>648</v>
+      </c>
+      <c r="I56" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="K56" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>652</v>
+      </c>
+      <c r="B57" t="s">
+        <v>306</v>
+      </c>
+      <c r="C57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" t="s">
+        <v>571</v>
+      </c>
+      <c r="E57" t="s">
+        <v>303</v>
+      </c>
+      <c r="F57" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="H57" t="s">
+        <v>648</v>
+      </c>
+      <c r="I57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>653</v>
+      </c>
+      <c r="B58" t="s">
+        <v>412</v>
+      </c>
+      <c r="C58" t="s">
+        <v>307</v>
+      </c>
+      <c r="D58" t="s">
+        <v>571</v>
+      </c>
+      <c r="E58" t="s">
+        <v>303</v>
+      </c>
+      <c r="F58" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="H58" t="s">
+        <v>648</v>
+      </c>
+      <c r="I58" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="K58" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>654</v>
+      </c>
+      <c r="B59" t="s">
+        <v>413</v>
+      </c>
+      <c r="C59" t="s">
+        <v>307</v>
+      </c>
+      <c r="D59" t="s">
+        <v>571</v>
+      </c>
+      <c r="E59" t="s">
+        <v>303</v>
+      </c>
+      <c r="F59" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H59" t="s">
+        <v>648</v>
+      </c>
+      <c r="I59" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="K59" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>655</v>
+      </c>
+      <c r="B60" t="s">
+        <v>612</v>
+      </c>
+      <c r="C60" t="s">
+        <v>425</v>
+      </c>
+      <c r="D60" t="s">
+        <v>571</v>
+      </c>
+      <c r="E60" t="s">
+        <v>303</v>
+      </c>
+      <c r="F60" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H60" t="s">
+        <v>648</v>
+      </c>
+      <c r="I60" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="K60" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>656</v>
+      </c>
+      <c r="B61" t="s">
+        <v>414</v>
+      </c>
+      <c r="C61" t="s">
+        <v>307</v>
+      </c>
+      <c r="D61" t="s">
+        <v>571</v>
+      </c>
+      <c r="E61" t="s">
+        <v>303</v>
+      </c>
+      <c r="F61" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="H61" t="s">
+        <v>648</v>
+      </c>
+      <c r="I61" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="K61" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>657</v>
+      </c>
+      <c r="B62" t="s">
+        <v>618</v>
+      </c>
+      <c r="C62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" t="s">
+        <v>571</v>
+      </c>
+      <c r="E62" t="s">
+        <v>303</v>
+      </c>
+      <c r="F62" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H62" t="s">
+        <v>648</v>
+      </c>
+      <c r="I62" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="K62" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>658</v>
+      </c>
+      <c r="B63" t="s">
+        <v>415</v>
+      </c>
+      <c r="C63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" t="s">
+        <v>571</v>
+      </c>
+      <c r="E63" t="s">
+        <v>303</v>
+      </c>
+      <c r="F63" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="H63" t="s">
+        <v>648</v>
+      </c>
+      <c r="I63" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>659</v>
+      </c>
+      <c r="B64" t="s">
+        <v>613</v>
+      </c>
+      <c r="C64" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" t="s">
+        <v>571</v>
+      </c>
+      <c r="E64" t="s">
+        <v>303</v>
+      </c>
+      <c r="F64" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H64" t="s">
+        <v>648</v>
+      </c>
+      <c r="I64" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="K64" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>660</v>
+      </c>
+      <c r="B65" t="s">
+        <v>430</v>
+      </c>
+      <c r="C65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D65" t="s">
+        <v>571</v>
+      </c>
+      <c r="E65" t="s">
+        <v>303</v>
+      </c>
+      <c r="F65" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H65" t="s">
+        <v>648</v>
+      </c>
+      <c r="I65" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K65" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>661</v>
+      </c>
+      <c r="B66" t="s">
+        <v>416</v>
+      </c>
+      <c r="C66" t="s">
+        <v>307</v>
+      </c>
+      <c r="D66" t="s">
+        <v>571</v>
+      </c>
+      <c r="E66" t="s">
+        <v>303</v>
+      </c>
+      <c r="F66" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="H66" t="s">
+        <v>648</v>
+      </c>
+      <c r="I66" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="K66" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>662</v>
+      </c>
+      <c r="B67" t="s">
+        <v>624</v>
+      </c>
+      <c r="C67" t="s">
+        <v>307</v>
+      </c>
+      <c r="D67" t="s">
+        <v>571</v>
+      </c>
+      <c r="E67" t="s">
+        <v>303</v>
+      </c>
+      <c r="F67" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G67" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H67" t="s">
+        <v>648</v>
+      </c>
+      <c r="I67" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J67" s="2">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="K67" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>663</v>
+      </c>
+      <c r="B68" t="s">
+        <v>625</v>
+      </c>
+      <c r="C68" t="s">
+        <v>307</v>
+      </c>
+      <c r="D68" t="s">
+        <v>578</v>
+      </c>
+      <c r="E68" t="s">
+        <v>303</v>
+      </c>
+      <c r="F68" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H68" t="s">
+        <v>648</v>
+      </c>
+      <c r="I68" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="K68" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>664</v>
+      </c>
+      <c r="B69" t="s">
+        <v>417</v>
+      </c>
+      <c r="C69" t="s">
+        <v>307</v>
+      </c>
+      <c r="D69" t="s">
+        <v>578</v>
+      </c>
+      <c r="E69" t="s">
+        <v>303</v>
+      </c>
+      <c r="F69" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H69" t="s">
+        <v>648</v>
+      </c>
+      <c r="I69" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="K69" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>665</v>
+      </c>
+      <c r="B70" t="s">
+        <v>626</v>
+      </c>
+      <c r="C70" t="s">
+        <v>307</v>
+      </c>
+      <c r="D70" t="s">
+        <v>578</v>
+      </c>
+      <c r="E70" t="s">
+        <v>303</v>
+      </c>
+      <c r="F70" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="H70" t="s">
+        <v>648</v>
+      </c>
+      <c r="I70" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K70" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>666</v>
+      </c>
+      <c r="B71" t="s">
+        <v>627</v>
+      </c>
+      <c r="C71" t="s">
+        <v>307</v>
+      </c>
+      <c r="D71" t="s">
+        <v>578</v>
+      </c>
+      <c r="E71" t="s">
+        <v>303</v>
+      </c>
+      <c r="F71" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H71" t="s">
+        <v>648</v>
+      </c>
+      <c r="I71" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="K71" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>667</v>
+      </c>
+      <c r="B72" t="s">
+        <v>628</v>
+      </c>
+      <c r="C72" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" t="s">
+        <v>578</v>
+      </c>
+      <c r="E72" t="s">
+        <v>303</v>
+      </c>
+      <c r="F72" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H72" t="s">
+        <v>648</v>
+      </c>
+      <c r="I72" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="K72" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>668</v>
+      </c>
+      <c r="B73" t="s">
+        <v>629</v>
+      </c>
+      <c r="C73" t="s">
+        <v>307</v>
+      </c>
+      <c r="D73" t="s">
+        <v>578</v>
+      </c>
+      <c r="E73" t="s">
+        <v>303</v>
+      </c>
+      <c r="F73" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="H73" t="s">
+        <v>648</v>
+      </c>
+      <c r="I73" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K73" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>669</v>
+      </c>
+      <c r="B74" t="s">
+        <v>630</v>
+      </c>
+      <c r="C74" t="s">
+        <v>307</v>
+      </c>
+      <c r="D74" t="s">
+        <v>578</v>
+      </c>
+      <c r="E74" t="s">
+        <v>303</v>
+      </c>
+      <c r="F74" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H74" t="s">
+        <v>648</v>
+      </c>
+      <c r="I74" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="K74" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>670</v>
+      </c>
+      <c r="B75" t="s">
+        <v>631</v>
+      </c>
+      <c r="C75" t="s">
+        <v>307</v>
+      </c>
+      <c r="D75" t="s">
+        <v>578</v>
+      </c>
+      <c r="E75" t="s">
+        <v>303</v>
+      </c>
+      <c r="F75" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H75" t="s">
+        <v>648</v>
+      </c>
+      <c r="I75" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0.21875</v>
+      </c>
+      <c r="K75" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>671</v>
+      </c>
+      <c r="B76" t="s">
+        <v>632</v>
+      </c>
+      <c r="C76" t="s">
+        <v>307</v>
+      </c>
+      <c r="D76" t="s">
+        <v>578</v>
+      </c>
+      <c r="E76" t="s">
+        <v>303</v>
+      </c>
+      <c r="F76" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H76" t="s">
+        <v>648</v>
+      </c>
+      <c r="I76" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K76" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>672</v>
+      </c>
+      <c r="B77" t="s">
+        <v>633</v>
+      </c>
+      <c r="C77" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" t="s">
+        <v>578</v>
+      </c>
+      <c r="E77" t="s">
+        <v>303</v>
+      </c>
+      <c r="F77" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H77" t="s">
+        <v>648</v>
+      </c>
+      <c r="I77" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="K77" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>673</v>
+      </c>
+      <c r="B78" t="s">
+        <v>635</v>
+      </c>
+      <c r="C78" t="s">
+        <v>307</v>
+      </c>
+      <c r="D78" t="s">
+        <v>578</v>
+      </c>
+      <c r="E78" t="s">
+        <v>303</v>
+      </c>
+      <c r="F78" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="H78" t="s">
+        <v>648</v>
+      </c>
+      <c r="I78" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0.24513888888888888</v>
+      </c>
+      <c r="K78" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>674</v>
+      </c>
+      <c r="B79" t="s">
+        <v>637</v>
+      </c>
+      <c r="C79" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" t="s">
+        <v>578</v>
+      </c>
+      <c r="E79" t="s">
+        <v>303</v>
+      </c>
+      <c r="F79" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H79" t="s">
+        <v>648</v>
+      </c>
+      <c r="I79" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K79" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>675</v>
+      </c>
+      <c r="B80" t="s">
+        <v>638</v>
+      </c>
+      <c r="C80" t="s">
+        <v>307</v>
+      </c>
+      <c r="D80" t="s">
+        <v>578</v>
+      </c>
+      <c r="E80" t="s">
+        <v>303</v>
+      </c>
+      <c r="F80" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H80" t="s">
+        <v>648</v>
+      </c>
+      <c r="I80" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="K80" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>676</v>
+      </c>
+      <c r="B81" t="s">
+        <v>639</v>
+      </c>
+      <c r="C81" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" t="s">
+        <v>578</v>
+      </c>
+      <c r="E81" t="s">
+        <v>303</v>
+      </c>
+      <c r="F81" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H81" t="s">
+        <v>648</v>
+      </c>
+      <c r="I81" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="K81" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>677</v>
+      </c>
+      <c r="B82" t="s">
+        <v>640</v>
+      </c>
+      <c r="C82" t="s">
+        <v>307</v>
+      </c>
+      <c r="D82" t="s">
+        <v>578</v>
+      </c>
+      <c r="E82" t="s">
+        <v>303</v>
+      </c>
+      <c r="F82" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H82" t="s">
+        <v>648</v>
+      </c>
+      <c r="I82" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K82" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>678</v>
+      </c>
+      <c r="B83" t="s">
+        <v>641</v>
+      </c>
+      <c r="C83" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83" t="s">
+        <v>578</v>
+      </c>
+      <c r="E83" t="s">
+        <v>303</v>
+      </c>
+      <c r="F83" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="H83" t="s">
+        <v>648</v>
+      </c>
+      <c r="I83" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="K83" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>679</v>
+      </c>
+      <c r="B84" t="s">
+        <v>418</v>
+      </c>
+      <c r="C84" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" t="s">
+        <v>571</v>
+      </c>
+      <c r="E84" t="s">
+        <v>303</v>
+      </c>
+      <c r="F84" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H84" t="s">
+        <v>648</v>
+      </c>
+      <c r="I84" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="K84" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>680</v>
+      </c>
+      <c r="B85" t="s">
+        <v>419</v>
+      </c>
+      <c r="C85" t="s">
+        <v>307</v>
+      </c>
+      <c r="D85" t="s">
+        <v>571</v>
+      </c>
+      <c r="E85" t="s">
+        <v>303</v>
+      </c>
+      <c r="F85" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H85" t="s">
+        <v>648</v>
+      </c>
+      <c r="I85" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K85" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>681</v>
+      </c>
+      <c r="B86" t="s">
+        <v>318</v>
+      </c>
+      <c r="C86" t="s">
+        <v>307</v>
+      </c>
+      <c r="D86" t="s">
+        <v>571</v>
+      </c>
+      <c r="E86" t="s">
+        <v>303</v>
+      </c>
+      <c r="F86" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="H86" t="s">
+        <v>648</v>
+      </c>
+      <c r="I86" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="K86" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>682</v>
+      </c>
+      <c r="B87" t="s">
+        <v>420</v>
+      </c>
+      <c r="C87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" t="s">
+        <v>571</v>
+      </c>
+      <c r="E87" t="s">
+        <v>303</v>
+      </c>
+      <c r="F87" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H87" t="s">
+        <v>648</v>
+      </c>
+      <c r="I87" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H89" t="s">
+        <v>648</v>
+      </c>
+      <c r="I89" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="K89" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90">
+        <v>60</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="1">
+        <v>43992</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H90" t="s">
+        <v>648</v>
+      </c>
+      <c r="I90" s="1">
+        <v>44025</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K90" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H91" t="s">
+        <v>648</v>
+      </c>
+      <c r="I91" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="K91" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H92" t="s">
+        <v>648</v>
+      </c>
+      <c r="I92" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="K92" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="H93" t="s">
+        <v>648</v>
+      </c>
+      <c r="I93" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="K93" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H94" t="s">
+        <v>648</v>
+      </c>
+      <c r="I94" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="K94" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H95" t="s">
+        <v>648</v>
+      </c>
+      <c r="I95" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="K95" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H96" t="s">
+        <v>648</v>
+      </c>
+      <c r="I96" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="K96" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H97" t="s">
+        <v>648</v>
+      </c>
+      <c r="I97" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K97" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="H98" t="s">
+        <v>648</v>
+      </c>
+      <c r="I98" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="K98" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" t="s">
+        <v>97</v>
+      </c>
+      <c r="D99">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="H99" t="s">
+        <v>648</v>
+      </c>
+      <c r="I99" s="1">
+        <v>44028</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="K99" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H100" t="s">
+        <v>648</v>
+      </c>
+      <c r="I100" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="K100" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H101" t="s">
+        <v>648</v>
+      </c>
+      <c r="I101" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K101" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H102" t="s">
+        <v>648</v>
+      </c>
+      <c r="I102" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="K102" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H103" t="s">
+        <v>648</v>
+      </c>
+      <c r="I103" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="K103" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="1">
+        <v>43993</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="H104" t="s">
+        <v>648</v>
+      </c>
+      <c r="I104" s="1">
+        <v>44026</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="K104" t="s">
+        <v>648</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A51">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G15"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10463,674 +13999,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>608</v>
-      </c>
-      <c r="E1" t="s">
-        <v>707</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F2" t="s">
-        <v>651</v>
-      </c>
-      <c r="G2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="B3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D3" t="s">
-        <v>571</v>
-      </c>
-      <c r="E3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F3" t="s">
-        <v>655</v>
-      </c>
-      <c r="G3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="B4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" t="s">
-        <v>571</v>
-      </c>
-      <c r="E4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4" t="s">
-        <v>659</v>
-      </c>
-      <c r="G4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="B5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C5" t="s">
-        <v>425</v>
-      </c>
-      <c r="D5" t="s">
-        <v>571</v>
-      </c>
-      <c r="E5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F5" t="s">
-        <v>661</v>
-      </c>
-      <c r="G5" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="B6" t="s">
-        <v>613</v>
-      </c>
-      <c r="C6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D6" t="s">
-        <v>571</v>
-      </c>
-      <c r="E6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F6" t="s">
-        <v>653</v>
-      </c>
-      <c r="G6" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="B7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D7" t="s">
-        <v>571</v>
-      </c>
-      <c r="E7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F7" t="s">
-        <v>651</v>
-      </c>
-      <c r="G7" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="B8" t="s">
-        <v>616</v>
-      </c>
-      <c r="C8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" t="s">
-        <v>571</v>
-      </c>
-      <c r="E8" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" t="s">
-        <v>668</v>
-      </c>
-      <c r="G8" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="B9" t="s">
-        <v>619</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" t="s">
-        <v>571</v>
-      </c>
-      <c r="E9" t="s">
-        <v>303</v>
-      </c>
-      <c r="F9" t="s">
-        <v>671</v>
-      </c>
-      <c r="G9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="B10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C10" t="s">
-        <v>425</v>
-      </c>
-      <c r="D10" t="s">
-        <v>571</v>
-      </c>
-      <c r="E10" t="s">
-        <v>303</v>
-      </c>
-      <c r="F10" t="s">
-        <v>673</v>
-      </c>
-      <c r="G10" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="B11" t="s">
-        <v>617</v>
-      </c>
-      <c r="C11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D11" t="s">
-        <v>571</v>
-      </c>
-      <c r="E11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F11" t="s">
-        <v>676</v>
-      </c>
-      <c r="G11" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="B12" t="s">
-        <v>623</v>
-      </c>
-      <c r="C12" t="s">
-        <v>307</v>
-      </c>
-      <c r="D12" t="s">
-        <v>571</v>
-      </c>
-      <c r="E12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F12" t="s">
-        <v>679</v>
-      </c>
-      <c r="G12" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="B13" t="s">
-        <v>416</v>
-      </c>
-      <c r="C13" t="s">
-        <v>425</v>
-      </c>
-      <c r="D13" t="s">
-        <v>571</v>
-      </c>
-      <c r="E13" t="s">
-        <v>303</v>
-      </c>
-      <c r="F13" t="s">
-        <v>682</v>
-      </c>
-      <c r="G13" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="B14" t="s">
-        <v>627</v>
-      </c>
-      <c r="C14" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" t="s">
-        <v>571</v>
-      </c>
-      <c r="E14" t="s">
-        <v>303</v>
-      </c>
-      <c r="F14" t="s">
-        <v>568</v>
-      </c>
-      <c r="G14" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="B15" t="s">
-        <v>628</v>
-      </c>
-      <c r="C15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D15" t="s">
-        <v>578</v>
-      </c>
-      <c r="E15" t="s">
-        <v>303</v>
-      </c>
-      <c r="F15" t="s">
-        <v>687</v>
-      </c>
-      <c r="G15" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="B16" t="s">
-        <v>417</v>
-      </c>
-      <c r="C16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" t="s">
-        <v>578</v>
-      </c>
-      <c r="E16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F16" t="s">
-        <v>671</v>
-      </c>
-      <c r="G16" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="B17" t="s">
-        <v>634</v>
-      </c>
-      <c r="C17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" t="s">
-        <v>578</v>
-      </c>
-      <c r="E17" t="s">
-        <v>303</v>
-      </c>
-      <c r="F17" t="s">
-        <v>661</v>
-      </c>
-      <c r="G17" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="B18" t="s">
-        <v>635</v>
-      </c>
-      <c r="C18" t="s">
-        <v>307</v>
-      </c>
-      <c r="D18" t="s">
-        <v>578</v>
-      </c>
-      <c r="E18" t="s">
-        <v>303</v>
-      </c>
-      <c r="F18" t="s">
-        <v>655</v>
-      </c>
-      <c r="G18" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="B19" t="s">
-        <v>636</v>
-      </c>
-      <c r="C19" t="s">
-        <v>307</v>
-      </c>
-      <c r="D19" t="s">
-        <v>578</v>
-      </c>
-      <c r="E19" t="s">
-        <v>303</v>
-      </c>
-      <c r="F19" t="s">
-        <v>661</v>
-      </c>
-      <c r="G19" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="B20" t="s">
-        <v>638</v>
-      </c>
-      <c r="C20" t="s">
-        <v>307</v>
-      </c>
-      <c r="D20" t="s">
-        <v>578</v>
-      </c>
-      <c r="E20" t="s">
-        <v>303</v>
-      </c>
-      <c r="F20" t="s">
-        <v>653</v>
-      </c>
-      <c r="G20" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="B21" t="s">
-        <v>640</v>
-      </c>
-      <c r="C21" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" t="s">
-        <v>578</v>
-      </c>
-      <c r="E21" t="s">
-        <v>303</v>
-      </c>
-      <c r="F21" t="s">
-        <v>651</v>
-      </c>
-      <c r="G21" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="B22" t="s">
-        <v>643</v>
-      </c>
-      <c r="C22" t="s">
-        <v>307</v>
-      </c>
-      <c r="D22" t="s">
-        <v>578</v>
-      </c>
-      <c r="E22" t="s">
-        <v>303</v>
-      </c>
-      <c r="F22" t="s">
-        <v>687</v>
-      </c>
-      <c r="G22" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="B23" t="s">
-        <v>645</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>578</v>
-      </c>
-      <c r="E23" t="s">
-        <v>303</v>
-      </c>
-      <c r="F23" t="s">
-        <v>653</v>
-      </c>
-      <c r="G23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="B24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>578</v>
-      </c>
-      <c r="E24" t="s">
-        <v>303</v>
-      </c>
-      <c r="F24" t="s">
-        <v>687</v>
-      </c>
-      <c r="G24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="B25" t="s">
-        <v>647</v>
-      </c>
-      <c r="C25" t="s">
-        <v>307</v>
-      </c>
-      <c r="D25" t="s">
-        <v>578</v>
-      </c>
-      <c r="E25" t="s">
-        <v>303</v>
-      </c>
-      <c r="F25" t="s">
-        <v>655</v>
-      </c>
-      <c r="G25" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="B26" t="s">
-        <v>648</v>
-      </c>
-      <c r="C26" t="s">
-        <v>307</v>
-      </c>
-      <c r="D26" t="s">
-        <v>578</v>
-      </c>
-      <c r="E26" t="s">
-        <v>303</v>
-      </c>
-      <c r="F26" t="s">
-        <v>651</v>
-      </c>
-      <c r="G26" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="B27" t="s">
-        <v>318</v>
-      </c>
-      <c r="C27" t="s">
-        <v>307</v>
-      </c>
-      <c r="D27" t="s">
-        <v>571</v>
-      </c>
-      <c r="E27" t="s">
-        <v>303</v>
-      </c>
-      <c r="F27" t="s">
-        <v>657</v>
-      </c>
-      <c r="G27" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="B28" t="s">
-        <v>420</v>
-      </c>
-      <c r="C28" t="s">
-        <v>425</v>
-      </c>
-      <c r="D28" t="s">
-        <v>571</v>
-      </c>
-      <c r="E28" t="s">
-        <v>303</v>
-      </c>
-      <c r="F28" t="s">
-        <v>653</v>
-      </c>
-      <c r="G28" t="s">
-        <v>710</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
 </file>